--- a/Excel Workbooks/100/100Pi2.xlsx
+++ b/Excel Workbooks/100/100Pi2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\100\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD3ADC8-3EEA-4889-B6B2-1EAD538E9960}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,40 +441,40 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.03491946773022081</v>
+        <v>3.491946773022081E-2</v>
       </c>
       <c r="B2">
-        <v>0.8418862751490747</v>
+        <v>0.84188627514907466</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>-0.1015926535897931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.10159265358979309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2398190088041052</v>
       </c>
       <c r="B3">
-        <v>0.500431445782355</v>
+        <v>0.50043144578235499</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>-3.233794600127631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-3.2337946001276312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.01989073115888595</v>
+        <v>1.9890731158885951E-2</v>
       </c>
       <c r="B4">
-        <v>0.1546992682365727</v>
+        <v>0.15469926823657271</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,71 +483,71 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.884249087499857</v>
+        <v>0.88424908749985698</v>
       </c>
       <c r="B5">
-        <v>0.03526209341722741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>3.5262093417227407E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.3413184528490845</v>
+        <v>0.34131845284908452</v>
       </c>
       <c r="B6">
-        <v>0.5338072404559329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.53380724045593286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6770011347806888</v>
       </c>
       <c r="B7">
-        <v>0.437321536934892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.43732153693489201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.3265027701072797</v>
+        <v>0.32650277010727968</v>
       </c>
       <c r="B8">
-        <v>0.9763458355438248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.97634583554382481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.9372517076535359</v>
+        <v>0.93725170765353594</v>
       </c>
       <c r="B9">
-        <v>0.1888904879706235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.18889048797062349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.03421271843032458</v>
+        <v>3.4212718430324578E-2</v>
       </c>
       <c r="B10">
-        <v>0.4539980204376337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.45399802043763371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.8152704475626679</v>
+        <v>0.81527044756266787</v>
       </c>
       <c r="B11">
-        <v>0.2682682715337829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.26826827153378291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.5553909904501495</v>
       </c>
       <c r="B12">
-        <v>0.5736883551722204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.57368835517222039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.1510523546226078</v>
       </c>
@@ -500,708 +555,708 @@
         <v>0.2453935111573472</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.4454660795590595</v>
+        <v>0.44546607955905948</v>
       </c>
       <c r="B14">
-        <v>0.779391688193097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.77939168819309701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.5672042062461832</v>
+        <v>0.56720420624618317</v>
       </c>
       <c r="B15">
-        <v>0.7092018759985219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.70920187599852191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.3168632082484716</v>
+        <v>0.31686320824847158</v>
       </c>
       <c r="B16">
-        <v>0.3150565509071501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.31505655090715012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.4761796871225809</v>
+        <v>0.47617968712258091</v>
       </c>
       <c r="B17">
-        <v>0.8323010302870971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.83230103028709712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.6326445516722037</v>
+        <v>0.63264455167220368</v>
       </c>
       <c r="B18">
-        <v>0.8275269185352442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.82752691853524418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.952702666449455</v>
       </c>
       <c r="B19">
-        <v>0.8798599996198089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.87985999961980887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.5620345329689972</v>
+        <v>0.56203453296899719</v>
       </c>
       <c r="B20">
-        <v>0.745819433981379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.74581943398137895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.2311554246075671</v>
+        <v>0.23115542460756711</v>
       </c>
       <c r="B21">
-        <v>0.2064604188959331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.20646041889593311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.3473333951636082</v>
+        <v>0.34733339516360823</v>
       </c>
       <c r="B22">
-        <v>0.5645086052817225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.56450860528172253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.6821463303491249</v>
+        <v>0.68214633034912486</v>
       </c>
       <c r="B23">
         <v>0.789743206842771</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.4807491399987069</v>
+        <v>0.48074913999870689</v>
       </c>
       <c r="B24">
-        <v>0.69545444928844</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.69545444928844002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.0615024208622712</v>
+        <v>6.1502420862271201E-2</v>
       </c>
       <c r="B25">
-        <v>0.9552423796703465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.95524237967034653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.8081156621811738</v>
+        <v>0.80811566218117381</v>
       </c>
       <c r="B26">
-        <v>0.8368927268769771</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.83689272687697713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.8748524241652397</v>
+        <v>0.87485242416523967</v>
       </c>
       <c r="B27">
         <v>0.9174198642199699</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.4322298104014956</v>
+        <v>0.43222981040149561</v>
       </c>
       <c r="B28">
-        <v>0.3869744979410177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.38697449794101768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.9676847576047735</v>
+        <v>0.96768475760477346</v>
       </c>
       <c r="B29">
-        <v>0.1443787953530868</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.14437879535308679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.295357727678101</v>
+        <v>0.29535772767810098</v>
       </c>
       <c r="B30">
-        <v>0.7839123738612467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.78391237386124668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.8501349667484764</v>
+        <v>0.85013496674847644</v>
       </c>
       <c r="B31">
-        <v>0.7093617935650897</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.70936179356508966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.8862979645872098</v>
+        <v>0.88629796458720977</v>
       </c>
       <c r="B32">
-        <v>0.9802475248952731</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.98024752489527311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.09686156063993423</v>
+        <v>9.686156063993423E-2</v>
       </c>
       <c r="B33">
-        <v>0.3098891924319869</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.30988919243198693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.515044739529577</v>
+        <v>0.51504473952957697</v>
       </c>
       <c r="B34">
-        <v>0.2088087106538594</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.20880871065385939</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.8666228790210088</v>
+        <v>0.86662287902100876</v>
       </c>
       <c r="B35">
-        <v>0.7490536489542046</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.74905364895420457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.9951306989815132</v>
+        <v>0.99513069898151318</v>
       </c>
       <c r="B36">
-        <v>0.944989710868115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.94498971086811501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.009946559200131766</v>
+        <v>9.946559200131766E-3</v>
       </c>
       <c r="B37">
-        <v>0.3740908556769131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.37409085567691308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.3506293391804061</v>
+        <v>0.35062933918040612</v>
       </c>
       <c r="B38">
-        <v>0.5640019255267338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.56400192552673378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.4055105393602573</v>
+        <v>0.40551053936025733</v>
       </c>
       <c r="B39">
-        <v>0.6333385246582349</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.63333852465823492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.4203855876537711</v>
       </c>
       <c r="B40">
-        <v>0.335987359664394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.33598735966439403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.5049090078969862</v>
+        <v>0.50490900789698623</v>
       </c>
       <c r="B41">
-        <v>0.7176344436370213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.71763444363702134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.4447580678253739</v>
+        <v>0.44475806782537392</v>
       </c>
       <c r="B42">
         <v>0.4773686012379339</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.2316820706275121</v>
+        <v>0.23168207062751209</v>
       </c>
       <c r="B43">
-        <v>0.6746191210063228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.67461912100632282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.9553002498927087</v>
+        <v>0.95530024989270867</v>
       </c>
       <c r="B44">
-        <v>0.9042001795756954</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.90420017957569543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.4983958363932524</v>
+        <v>0.49839583639325241</v>
       </c>
       <c r="B45">
-        <v>0.2588401568769957</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.25884015687699569</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.03439775805562062</v>
+        <v>3.439775805562062E-2</v>
       </c>
       <c r="B46">
-        <v>0.751899781589896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.75189978158989601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.206799100324908</v>
       </c>
       <c r="B47">
-        <v>0.3077807744007505</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.30778077440075052</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.235024657051445</v>
+        <v>0.23502465705144501</v>
       </c>
       <c r="B48">
-        <v>0.3620765020825489</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.36207650208254888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.5448369949659256</v>
+        <v>0.54483699496592564</v>
       </c>
       <c r="B49">
-        <v>0.4810535557072328</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.48105355570723279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.05469656537354595</v>
+        <v>5.4696565373545947E-2</v>
       </c>
       <c r="B50">
-        <v>0.9306044280723157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.93060442807231569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.5290806511781786</v>
       </c>
       <c r="B51">
-        <v>0.8585508321424651</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.85855083214246508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.01093077818824384</v>
+        <v>1.0930778188243839E-2</v>
       </c>
       <c r="B52">
-        <v>0.8877482322263928</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.88774823222639276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.0448056264904837</v>
+        <v>4.4805626490483703E-2</v>
       </c>
       <c r="B53">
-        <v>0.3093496713105383</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.30934967131053831</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.8488023955524396</v>
+        <v>0.84880239555243964</v>
       </c>
       <c r="B54">
-        <v>0.8466909506782732</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.84669095067827316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.9504342347515943</v>
+        <v>0.95043423475159428</v>
       </c>
       <c r="B55">
-        <v>0.3760127344680094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.37601273446800942</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.5297992314325021</v>
+        <v>0.52979923143250207</v>
       </c>
       <c r="B56">
-        <v>0.06495898337163419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>6.4958983371634194E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.7266610277517654</v>
+        <v>0.72666102775176544</v>
       </c>
       <c r="B57">
-        <v>0.939279711653403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.93927971165340296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.5331444529783064</v>
+        <v>0.53314445297830637</v>
       </c>
       <c r="B58">
-        <v>0.7155321006929051</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.71553210069290507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.04370889027572344</v>
+        <v>4.3708890275723437E-2</v>
       </c>
       <c r="B59">
-        <v>0.2202305537579546</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.22023055375795461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.7562628621142842</v>
+        <v>0.75626286211428417</v>
       </c>
       <c r="B60">
-        <v>0.8443156813566313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.84431568135663126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.1255370071637685</v>
       </c>
       <c r="B61">
-        <v>0.3169134506355691</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.31691345063556908</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.5557423904369517</v>
+        <v>0.55574239043695173</v>
       </c>
       <c r="B62">
-        <v>0.04773388593362826</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>4.7733885933628262E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.3137966492199484</v>
+        <v>0.31379664921994838</v>
       </c>
       <c r="B63">
-        <v>0.5853366390508051</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.58533663905080513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.8246126097284482</v>
+        <v>0.82461260972844819</v>
       </c>
       <c r="B64">
-        <v>0.7692279540852603</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.76922795408526035</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.2875274141195496</v>
+        <v>0.28752741411954957</v>
       </c>
       <c r="B65">
-        <v>0.4789741592239196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.47897415922391962</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.131228258520992</v>
+        <v>0.13122825852099201</v>
       </c>
       <c r="B66">
-        <v>0.7198084476665667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.71980844766656671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.2271520217092813</v>
+        <v>0.22715202170928131</v>
       </c>
       <c r="B67">
         <v>0.2431506536340334</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.02121018673194208</v>
+        <v>2.1210186731942079E-2</v>
       </c>
       <c r="B68">
-        <v>0.9785185763331891</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.97851857633318906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.5509570893656007</v>
+        <v>0.55095708936560073</v>
       </c>
       <c r="B69">
-        <v>0.5411541755638872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.54115417556388723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.9516070902379395</v>
+        <v>0.95160709023793955</v>
       </c>
       <c r="B70">
-        <v>0.5638133779447135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.56381337794471353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.702295874276297</v>
+        <v>0.70229587427629703</v>
       </c>
       <c r="B71">
-        <v>0.3957617274952842</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.39576172749528421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.5306683847036743</v>
+        <v>0.53066838470367428</v>
       </c>
       <c r="B72">
-        <v>0.1656392358722232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.16563923587222321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.3690290839746383</v>
+        <v>0.36902908397463829</v>
       </c>
       <c r="B73">
         <v>0.1954935021521125</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.8377525624682338</v>
+        <v>0.83775256246823382</v>
       </c>
       <c r="B74">
         <v>0.1089486140348959</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.3525609012373213</v>
+        <v>0.35256090123732131</v>
       </c>
       <c r="B75">
-        <v>0.6716327455205729</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.67163274552057295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.5820878490471082</v>
       </c>
       <c r="B76">
-        <v>0.5139270479854801</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.51392704798548006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.7378201761295261</v>
+        <v>0.73782017612952611</v>
       </c>
       <c r="B77">
-        <v>0.7966760090171751</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.79667600901717506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.4166563184916116</v>
+        <v>0.41665631849161161</v>
       </c>
       <c r="B78">
-        <v>0.934958301011318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.93495830101131805</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.7011220800633408</v>
+        <v>0.70112208006334076</v>
       </c>
       <c r="B79">
-        <v>0.7183853327271025</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.71838533272710248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.05077619082261864</v>
+        <v>5.0776190822618639E-2</v>
       </c>
       <c r="B80">
-        <v>0.3212838272697945</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.32128382726979449</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.07035052813026832</v>
+        <v>7.0350528130268319E-2</v>
       </c>
       <c r="B81">
-        <v>0.9530134909450256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.95301349094502563</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.1346905939750982</v>
+        <v>0.13469059397509819</v>
       </c>
       <c r="B82">
-        <v>0.8898216643983594</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.88982166439835941</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.8044231485888701</v>
       </c>
       <c r="B83">
-        <v>0.6223783635813893</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.62237836358138932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.4992208892124708</v>
+        <v>0.49922088921247082</v>
       </c>
       <c r="B84">
-        <v>0.03838685161640376</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>3.8386851616403761E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.6743076238903489</v>
+        <v>0.67430762389034893</v>
       </c>
       <c r="B85">
-        <v>0.002882878193877447</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>2.8828781938774468E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.03978455673885017</v>
+        <v>3.9784556738850167E-2</v>
       </c>
       <c r="B86">
         <v>0.4989524888257596</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.8482823827443227</v>
+        <v>0.84828238274432266</v>
       </c>
       <c r="B87">
-        <v>0.2210660191799109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.22106601917991089</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.8120356370540599</v>
       </c>
       <c r="B88">
-        <v>0.7010957638305366</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.70109576383053662</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.04856374753266568</v>
+        <v>4.856374753266568E-2</v>
       </c>
       <c r="B89">
-        <v>0.2782704360283579</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.27827043602835788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.6370943001302443</v>
+        <v>0.63709430013024426</v>
       </c>
       <c r="B90">
-        <v>0.5758308560663463</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.57583085606634632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.01675830937564993</v>
+        <v>1.675830937564993E-2</v>
       </c>
       <c r="B91">
-        <v>0.4940219798131567</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.49402197981315671</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.8322278851149293</v>
+        <v>0.83222788511492929</v>
       </c>
       <c r="B92">
-        <v>0.3540435269100365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.35404352691003649</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.2285287488014094</v>
+        <v>0.22852874880140939</v>
       </c>
       <c r="B93">
-        <v>0.4838148857067577</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.48381488570675768</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.02619745727960354</v>
+        <v>2.6197457279603539E-2</v>
       </c>
       <c r="B94">
         <v>0.722813182548394</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.546616109169812</v>
+        <v>0.54661610916981196</v>
       </c>
       <c r="B95">
-        <v>0.6395136938690227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.63951369386902268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.7457594371172394</v>
+        <v>0.74575943711723935</v>
       </c>
       <c r="B96">
         <v>0.1019777976802604</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.5323588600550908</v>
+        <v>0.53235886005509081</v>
       </c>
       <c r="B97">
-        <v>0.007218835685473102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>7.2188356854731017E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.3925028377010569</v>
+        <v>0.39250283770105687</v>
       </c>
       <c r="B98">
-        <v>0.6714195005891404</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.67141950058914035</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.869202355332797</v>
+        <v>0.86920235533279699</v>
       </c>
       <c r="B99">
-        <v>0.9800704588869714</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.98007045888697142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.6067774512354729</v>
+        <v>0.60677745123547289</v>
       </c>
       <c r="B100">
-        <v>0.1257072156746223</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.12570721567462231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.5976661997094695</v>
+        <v>0.59766619970946955</v>
       </c>
       <c r="B101">
-        <v>0.4351612967116089</v>
+        <v>0.43516129671160891</v>
       </c>
     </row>
   </sheetData>
